--- a/data/trans_orig/P07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80E8097A-3847-4043-9B44-98061D2CCC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54982C21-DFCE-4954-A74D-D64BE44BFC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CAA14B00-3204-4245-AAB3-8287CB90D37D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A835E90-7BC0-4BBD-BB5D-48C3F21E06FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,2011 +77,2011 @@
     <t>5,39%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según salud general autopercibida en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>Población según salud general autopercibida en 2015 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>Población según salud general autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
   </si>
   <si>
     <t>39,92%</t>
   </si>
   <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según salud general autopercibida en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>Población según salud general autopercibida en 2015 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>Población según salud general autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
   </si>
 </sst>
 </file>
@@ -2493,7 +2493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637D4554-EFB8-45CD-A3B0-2F8F4CA8F60E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DFAE26-F392-4273-94C3-FFB2C86DE263}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2788,10 +2788,10 @@
         <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>353</v>
@@ -2800,19 +2800,19 @@
         <v>355973</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>56</v>
@@ -2821,13 +2821,13 @@
         <v>56742</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -2836,13 +2836,13 @@
         <v>47743</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -2851,13 +2851,13 @@
         <v>104485</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2872,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2887,13 +2887,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2902,18 +2902,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2925,13 +2925,13 @@
         <v>15171</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2940,13 +2940,13 @@
         <v>41023</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -2955,13 +2955,13 @@
         <v>56194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2976,13 @@
         <v>119174</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>201</v>
@@ -2991,13 +2991,13 @@
         <v>206436</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>317</v>
@@ -3006,13 +3006,13 @@
         <v>325610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3027,13 @@
         <v>575433</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>687</v>
@@ -3042,13 +3042,13 @@
         <v>712671</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>1251</v>
@@ -3057,13 +3057,13 @@
         <v>1288103</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3078,13 @@
         <v>767050</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>476</v>
@@ -3093,13 +3093,13 @@
         <v>476691</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>1222</v>
@@ -3108,19 +3108,19 @@
         <v>1243741</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>206</v>
@@ -3129,13 +3129,13 @@
         <v>215500</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>149</v>
@@ -3144,13 +3144,13 @@
         <v>150852</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>355</v>
@@ -3159,13 +3159,13 @@
         <v>366352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3180,13 @@
         <v>1692328</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1554</v>
@@ -3195,13 +3195,13 @@
         <v>1587673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3202</v>
@@ -3210,18 +3210,18 @@
         <v>3280001</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3233,13 +3233,13 @@
         <v>9721</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3248,13 +3248,13 @@
         <v>9727</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3263,13 +3263,13 @@
         <v>19448</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3284,13 @@
         <v>36396</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -3299,13 +3299,13 @@
         <v>58348</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -3314,13 +3314,13 @@
         <v>94744</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3335,13 @@
         <v>193917</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>188</v>
@@ -3350,13 +3350,13 @@
         <v>196006</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>373</v>
@@ -3365,13 +3365,13 @@
         <v>389923</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3386,13 @@
         <v>224270</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>141</v>
@@ -3401,13 +3401,13 @@
         <v>150166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>357</v>
@@ -3416,19 +3416,19 @@
         <v>374437</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>84</v>
@@ -3437,13 +3437,13 @@
         <v>87104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -3452,13 +3452,13 @@
         <v>62164</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>143</v>
@@ -3467,13 +3467,13 @@
         <v>149268</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3488,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3503,13 +3503,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3518,13 +3518,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3541,13 @@
         <v>80553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>189</v>
@@ -3556,13 +3556,13 @@
         <v>195362</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>271</v>
@@ -3571,13 +3571,13 @@
         <v>275915</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3592,13 @@
         <v>431855</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>747</v>
@@ -3607,13 +3607,13 @@
         <v>772351</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>1177</v>
@@ -3622,13 +3622,13 @@
         <v>1204205</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3643,13 @@
         <v>1207931</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>1336</v>
@@ -3658,13 +3658,13 @@
         <v>1372349</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>2530</v>
@@ -3673,13 +3673,13 @@
         <v>2580280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3694,13 @@
         <v>1195774</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>771</v>
@@ -3709,13 +3709,13 @@
         <v>778377</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>1932</v>
@@ -3724,19 +3724,19 @@
         <v>1974151</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>346</v>
@@ -3745,13 +3745,13 @@
         <v>359346</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>254</v>
@@ -3760,13 +3760,13 @@
         <v>260759</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>600</v>
@@ -3775,13 +3775,13 @@
         <v>620105</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3796,13 @@
         <v>3275459</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3811,13 +3811,13 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6510</v>
@@ -3826,18 +3826,18 @@
         <v>6654656</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3856,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368002CB-D908-4EC3-B4CE-FDD246436DB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C40E9E-B46F-41FE-ABB1-B14E08CD8282}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3873,7 +3873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3980,13 +3980,13 @@
         <v>73265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>143</v>
@@ -3995,13 +3995,13 @@
         <v>152485</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>209</v>
@@ -4010,13 +4010,13 @@
         <v>225750</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4031,13 @@
         <v>267720</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>445</v>
@@ -4046,13 +4046,13 @@
         <v>474182</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>688</v>
@@ -4061,13 +4061,13 @@
         <v>741902</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4082,13 @@
         <v>428700</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H6" s="7">
         <v>494</v>
@@ -4097,13 +4097,13 @@
         <v>533180</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M6" s="7">
         <v>898</v>
@@ -4112,13 +4112,13 @@
         <v>961880</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4133,13 @@
         <v>163432</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -4148,13 +4148,13 @@
         <v>157059</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>300</v>
@@ -4163,19 +4163,19 @@
         <v>320491</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>41</v>
@@ -4184,13 +4184,13 @@
         <v>41526</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -4199,13 +4199,13 @@
         <v>19945</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -4214,13 +4214,13 @@
         <v>61471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4235,13 @@
         <v>974643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1246</v>
@@ -4250,13 +4250,13 @@
         <v>1336851</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2154</v>
@@ -4265,18 +4265,18 @@
         <v>2311494</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4288,13 +4288,13 @@
         <v>23057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4303,13 +4303,13 @@
         <v>43621</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -4318,13 +4318,13 @@
         <v>66677</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4339,13 @@
         <v>174844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>218</v>
@@ -4354,13 +4354,13 @@
         <v>240604</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>383</v>
@@ -4369,13 +4369,13 @@
         <v>415448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4390,13 @@
         <v>815927</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="H12" s="7">
         <v>748</v>
@@ -4405,13 +4405,13 @@
         <v>807451</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>1503</v>
@@ -4420,13 +4420,13 @@
         <v>1623378</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4441,13 @@
         <v>658207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>467</v>
@@ -4456,13 +4456,13 @@
         <v>496896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>1101</v>
@@ -4471,19 +4471,19 @@
         <v>1155103</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>276</v>
@@ -4492,13 +4492,13 @@
         <v>286839</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -4507,13 +4507,13 @@
         <v>166309</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>437</v>
@@ -4522,13 +4522,13 @@
         <v>453148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,16 +4540,16 @@
         <v>1851</v>
       </c>
       <c r="D15" s="7">
-        <v>1958874</v>
+        <v>1958873</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1633</v>
@@ -4558,13 +4558,13 @@
         <v>1754882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3484</v>
@@ -4573,18 +4573,18 @@
         <v>3713755</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4596,13 +4596,13 @@
         <v>5193</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4611,13 +4611,13 @@
         <v>5120</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4626,13 +4626,13 @@
         <v>10313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4647,13 @@
         <v>24203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -4662,13 +4662,13 @@
         <v>30166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -4677,13 +4677,13 @@
         <v>54369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4698,13 @@
         <v>181241</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>27</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7">
         <v>201</v>
@@ -4713,13 +4713,13 @@
         <v>225906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7">
         <v>369</v>
@@ -4728,13 +4728,13 @@
         <v>407147</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4749,13 @@
         <v>199020</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -4764,13 +4764,13 @@
         <v>145713</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>320</v>
@@ -4779,19 +4779,19 @@
         <v>344734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>60</v>
@@ -4800,13 +4800,13 @@
         <v>69585</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -4815,13 +4815,13 @@
         <v>50740</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
@@ -4830,13 +4830,13 @@
         <v>120324</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4851,13 @@
         <v>479243</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>411</v>
@@ -4866,13 +4866,13 @@
         <v>457645</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>847</v>
@@ -4881,13 +4881,13 @@
         <v>936888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4904,13 @@
         <v>101515</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>53</v>
+        <v>325</v>
       </c>
       <c r="H22" s="7">
         <v>186</v>
@@ -4919,13 +4919,13 @@
         <v>201225</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>277</v>
@@ -4934,13 +4934,13 @@
         <v>302741</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4955,13 @@
         <v>466767</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
         <v>690</v>
@@ -4970,13 +4970,13 @@
         <v>744952</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M23" s="7">
         <v>1115</v>
@@ -4985,13 +4985,13 @@
         <v>1211719</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +5006,13 @@
         <v>1425868</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H24" s="7">
         <v>1443</v>
@@ -5021,13 +5021,13 @@
         <v>1566537</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>2770</v>
@@ -5036,13 +5036,13 @@
         <v>2992406</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5057,13 @@
         <v>1020659</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
         <v>746</v>
@@ -5072,13 +5072,13 @@
         <v>799669</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M25" s="7">
         <v>1721</v>
@@ -5087,19 +5087,19 @@
         <v>1820328</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>377</v>
@@ -5108,13 +5108,13 @@
         <v>397949</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="H26" s="7">
         <v>225</v>
@@ -5123,13 +5123,13 @@
         <v>236994</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>121</v>
+        <v>363</v>
       </c>
       <c r="M26" s="7">
         <v>602</v>
@@ -5138,13 +5138,13 @@
         <v>634944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5159,13 @@
         <v>3412759</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3290</v>
@@ -5174,13 +5174,13 @@
         <v>3549378</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6485</v>
@@ -5189,18 +5189,18 @@
         <v>6962137</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5219,7 +5219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE94873-4DA3-4FB3-B8DA-1C47559B2E79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257388E5-D3E9-4A8F-BAE5-0A1370CAC5C1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5236,7 +5236,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5343,13 +5343,13 @@
         <v>49728</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="H4" s="7">
         <v>96</v>
@@ -5358,13 +5358,13 @@
         <v>114972</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M4" s="7">
         <v>149</v>
@@ -5373,13 +5373,13 @@
         <v>164700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>367</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5394,13 @@
         <v>199558</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>293</v>
@@ -5409,13 +5409,13 @@
         <v>336030</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M5" s="7">
         <v>497</v>
@@ -5424,13 +5424,13 @@
         <v>535588</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5445,13 @@
         <v>275741</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H6" s="7">
         <v>296</v>
@@ -5460,13 +5460,13 @@
         <v>325602</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>380</v>
+        <v>38</v>
       </c>
       <c r="M6" s="7">
         <v>576</v>
@@ -5475,13 +5475,13 @@
         <v>601343</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>382</v>
+        <v>213</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5496,13 @@
         <v>163216</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>153</v>
@@ -5511,13 +5511,13 @@
         <v>160686</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
@@ -5526,19 +5526,19 @@
         <v>323902</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>65</v>
@@ -5547,13 +5547,13 @@
         <v>66103</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -5562,13 +5562,13 @@
         <v>53155</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M8" s="7">
         <v>116</v>
@@ -5577,13 +5577,13 @@
         <v>119258</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5598,13 @@
         <v>754347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>889</v>
@@ -5613,13 +5613,13 @@
         <v>990444</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1651</v>
@@ -5628,18 +5628,18 @@
         <v>1744791</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5651,13 +5651,13 @@
         <v>35732</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -5666,13 +5666,13 @@
         <v>65471</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>12</v>
+        <v>409</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -5681,13 +5681,13 @@
         <v>101202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5702,13 @@
         <v>215708</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -5717,13 +5717,13 @@
         <v>272852</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M11" s="7">
         <v>444</v>
@@ -5732,13 +5732,13 @@
         <v>488560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5753,13 @@
         <v>632434</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="H12" s="7">
         <v>581</v>
@@ -5768,13 +5768,13 @@
         <v>617765</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="M12" s="7">
         <v>1169</v>
@@ -5783,13 +5783,13 @@
         <v>1250199</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,10 +5807,10 @@
         <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>422</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>429</v>
       </c>
       <c r="H13" s="7">
         <v>690</v>
@@ -5819,13 +5819,13 @@
         <v>697041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="M13" s="7">
         <v>1445</v>
@@ -5834,19 +5834,19 @@
         <v>1494711</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>376</v>
@@ -5855,13 +5855,13 @@
         <v>392989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5870,13 +5870,13 @@
         <v>335171</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>710</v>
@@ -5885,13 +5885,13 @@
         <v>728159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5906,13 @@
         <v>2074532</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1908</v>
@@ -5921,13 +5921,13 @@
         <v>1988300</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3858</v>
@@ -5936,18 +5936,18 @@
         <v>4062832</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5959,13 +5959,13 @@
         <v>5670</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5974,13 +5974,13 @@
         <v>9554</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>448</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5989,13 +5989,13 @@
         <v>15223</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>451</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6010,13 @@
         <v>25610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -6025,13 +6025,13 @@
         <v>45207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -6040,13 +6040,13 @@
         <v>70816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>449</v>
+        <v>328</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6061,13 @@
         <v>146873</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="H18" s="7">
         <v>170</v>
@@ -6076,13 +6076,13 @@
         <v>182222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="M18" s="7">
         <v>302</v>
@@ -6091,13 +6091,13 @@
         <v>329096</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6112,13 @@
         <v>237829</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>212</v>
@@ -6127,34 +6127,34 @@
         <v>216794</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>431</v>
       </c>
       <c r="N19" s="7">
-        <v>454623</v>
+        <v>454624</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>168</v>
+        <v>476</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>119</v>
@@ -6163,13 +6163,13 @@
         <v>127923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -6178,13 +6178,13 @@
         <v>94349</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="M20" s="7">
         <v>213</v>
@@ -6193,13 +6193,13 @@
         <v>222272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6214,13 @@
         <v>543905</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>525</v>
@@ -6229,28 +6229,28 @@
         <v>548126</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1023</v>
       </c>
       <c r="N21" s="7">
-        <v>1092031</v>
+        <v>1092032</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6267,13 @@
         <v>91129</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="H22" s="7">
         <v>163</v>
@@ -6285,10 +6285,10 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>252</v>
@@ -6297,13 +6297,13 @@
         <v>281126</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6318,13 @@
         <v>440876</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>485</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>578</v>
@@ -6333,13 +6333,13 @@
         <v>654089</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>1005</v>
@@ -6348,13 +6348,13 @@
         <v>1094965</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6369,13 @@
         <v>1055049</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="H24" s="7">
         <v>1047</v>
@@ -6384,13 +6384,13 @@
         <v>1125589</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="M24" s="7">
         <v>2047</v>
@@ -6399,13 +6399,13 @@
         <v>2180638</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6420,13 @@
         <v>1198715</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H25" s="7">
         <v>1055</v>
@@ -6435,13 +6435,13 @@
         <v>1074521</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="M25" s="7">
         <v>2189</v>
@@ -6450,19 +6450,19 @@
         <v>2273237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>560</v>
@@ -6471,13 +6471,13 @@
         <v>587015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="H26" s="7">
         <v>479</v>
@@ -6486,13 +6486,13 @@
         <v>482675</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="M26" s="7">
         <v>1039</v>
@@ -6501,13 +6501,13 @@
         <v>1069690</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,13 +6522,13 @@
         <v>3372784</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3322</v>
@@ -6537,33 +6537,33 @@
         <v>3526870</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6532</v>
       </c>
       <c r="N27" s="7">
-        <v>6899654</v>
+        <v>6899655</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6582,7 +6582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CDADD3-6262-4445-A5C7-71ADB5D3358B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6355A455-FE73-46C1-97D1-B1A7F3EE0C38}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6599,7 +6599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6706,13 +6706,13 @@
         <v>58813</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="H4" s="7">
         <v>241</v>
@@ -6721,13 +6721,13 @@
         <v>132770</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="M4" s="7">
         <v>325</v>
@@ -6736,13 +6736,13 @@
         <v>191583</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>526</v>
+        <v>390</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6757,13 @@
         <v>157939</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="H5" s="7">
         <v>546</v>
@@ -6772,13 +6772,13 @@
         <v>304138</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="M5" s="7">
         <v>754</v>
@@ -6787,13 +6787,13 @@
         <v>462077</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>536</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6808,13 @@
         <v>217437</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v>546</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="H6" s="7">
         <v>497</v>
@@ -6823,13 +6823,13 @@
         <v>305682</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="M6" s="7">
         <v>767</v>
@@ -6838,13 +6838,13 @@
         <v>523118</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6859,13 @@
         <v>71877</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>546</v>
+        <v>359</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>554</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
@@ -6874,13 +6874,13 @@
         <v>73879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="M7" s="7">
         <v>207</v>
@@ -6889,19 +6889,19 @@
         <v>145757</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>317</v>
+        <v>557</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>44</v>
@@ -6910,13 +6910,13 @@
         <v>35568</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>484</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -6925,13 +6925,13 @@
         <v>19483</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>63</v>
+        <v>563</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -6940,13 +6940,13 @@
         <v>55051</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>279</v>
+        <v>566</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,13 +6961,13 @@
         <v>541634</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1427</v>
@@ -6976,13 +6976,13 @@
         <v>835953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2118</v>
@@ -6991,18 +6991,18 @@
         <v>1377586</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7014,13 +7014,13 @@
         <v>52219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>570</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -7029,13 +7029,13 @@
         <v>54975</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>572</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
@@ -7044,13 +7044,13 @@
         <v>107194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>561</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,13 +7065,13 @@
         <v>259309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>486</v>
+        <v>576</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="H11" s="7">
         <v>527</v>
@@ -7080,13 +7080,13 @@
         <v>326784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>567</v>
+        <v>413</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="M11" s="7">
         <v>813</v>
@@ -7095,13 +7095,13 @@
         <v>586093</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,28 +7116,28 @@
         <v>922899</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="H12" s="7">
         <v>1388</v>
       </c>
       <c r="I12" s="7">
-        <v>1083406</v>
+        <v>1083407</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="M12" s="7">
         <v>2294</v>
@@ -7146,13 +7146,13 @@
         <v>2006306</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,28 +7167,28 @@
         <v>674009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="H13" s="7">
         <v>738</v>
       </c>
       <c r="I13" s="7">
-        <v>608874</v>
+        <v>608875</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="M13" s="7">
         <v>1319</v>
@@ -7197,19 +7197,19 @@
         <v>1282884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>158</v>
@@ -7218,13 +7218,13 @@
         <v>253586</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="H14" s="7">
         <v>175</v>
@@ -7233,13 +7233,13 @@
         <v>175481</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="M14" s="7">
         <v>333</v>
@@ -7248,13 +7248,13 @@
         <v>429067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>607</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>596</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>597</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,28 +7269,28 @@
         <v>2162022</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>4913</v>
@@ -7299,18 +7299,18 @@
         <v>4411543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7322,13 +7322,13 @@
         <v>9344</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>599</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -7337,13 +7337,13 @@
         <v>11453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>602</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -7352,13 +7352,13 @@
         <v>20797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7373,13 @@
         <v>61780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -7388,13 +7388,13 @@
         <v>62924</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>610</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>176</v>
@@ -7403,13 +7403,13 @@
         <v>124705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,13 +7424,13 @@
         <v>320606</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="H18" s="7">
         <v>479</v>
@@ -7439,13 +7439,13 @@
         <v>324494</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="M18" s="7">
         <v>825</v>
@@ -7454,13 +7454,13 @@
         <v>645100</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,13 +7475,13 @@
         <v>194748</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="H19" s="7">
         <v>288</v>
@@ -7490,13 +7490,13 @@
         <v>226890</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="M19" s="7">
         <v>474</v>
@@ -7505,19 +7505,19 @@
         <v>421638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>375</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>68</v>
@@ -7526,13 +7526,13 @@
         <v>86560</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>639</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="H20" s="7">
         <v>110</v>
@@ -7541,13 +7541,13 @@
         <v>88125</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="M20" s="7">
         <v>178</v>
@@ -7556,13 +7556,13 @@
         <v>174686</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>636</v>
+        <v>523</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>638</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,13 +7577,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1004</v>
@@ -7592,13 +7592,13 @@
         <v>713886</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1685</v>
@@ -7607,13 +7607,13 @@
         <v>1386926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,13 +7630,13 @@
         <v>120376</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>640</v>
+        <v>566</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>293</v>
+        <v>646</v>
       </c>
       <c r="H22" s="7">
         <v>353</v>
@@ -7645,13 +7645,13 @@
         <v>199198</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>642</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>643</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
@@ -7660,13 +7660,13 @@
         <v>319575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,13 +7681,13 @@
         <v>479028</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="H23" s="7">
         <v>1181</v>
@@ -7696,13 +7696,13 @@
         <v>693847</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="M23" s="7">
         <v>1743</v>
@@ -7711,13 +7711,13 @@
         <v>1172875</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,13 +7732,13 @@
         <v>1460941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="H24" s="7">
         <v>2364</v>
@@ -7747,13 +7747,13 @@
         <v>1713583</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="M24" s="7">
         <v>3886</v>
@@ -7762,13 +7762,13 @@
         <v>3174524</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,16 +7780,16 @@
         <v>852</v>
       </c>
       <c r="D25" s="7">
-        <v>940635</v>
+        <v>940634</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>664</v>
+        <v>93</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H25" s="7">
         <v>1148</v>
@@ -7798,13 +7798,13 @@
         <v>909644</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M25" s="7">
         <v>2000</v>
@@ -7813,19 +7813,19 @@
         <v>1850278</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>270</v>
@@ -7834,13 +7834,13 @@
         <v>375714</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>674</v>
+        <v>607</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H26" s="7">
         <v>306</v>
@@ -7849,13 +7849,13 @@
         <v>283089</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>678</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>576</v>
@@ -7864,7 +7864,7 @@
         <v>658803</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>679</v>
@@ -7882,16 +7882,16 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>5352</v>
@@ -7900,33 +7900,33 @@
         <v>3799360</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P07-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54982C21-DFCE-4954-A74D-D64BE44BFC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E211C53-70F0-4E88-8A30-E9A508A47FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A835E90-7BC0-4BBD-BB5D-48C3F21E06FF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17299411-5CAD-4BBC-BEC9-1EEB55F9991B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="677">
   <si>
     <t>Población según salud general autopercibida en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>5,39%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>8,53%</t>
@@ -98,7 +98,7 @@
     <t>7,47%</t>
   </si>
   <si>
-    <t>9,72%</t>
+    <t>9,75%</t>
   </si>
   <si>
     <t>Regular</t>
@@ -107,28 +107,28 @@
     <t>26,78%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
   </si>
   <si>
     <t>38,59%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
   </si>
   <si>
     <t>33,4%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
   </si>
   <si>
     <t>Buena</t>
@@ -137,28 +137,28 @@
     <t>42,51%</t>
   </si>
   <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
   <si>
     <t>38,45%</t>
   </si>
   <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
   </si>
   <si>
     <t>Muy buena</t>
@@ -167,1915 +167,1903 @@
     <t>19,82%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>13,79%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según salud general autopercibida en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>Población según salud general autopercibida en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>Población según salud general autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
   </si>
   <si>
     <t>27,86%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según salud general autopercibida en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>Población según salud general autopercibida en 2015 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>Población según salud general autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
   </si>
   <si>
     <t>8,28%</t>
@@ -2493,7 +2481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DFAE26-F392-4273-94C3-FFB2C86DE263}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B8FBE1-395E-424B-AF60-D7FA6AEBD855}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3251,10 +3239,10 @@
         <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3263,13 +3251,13 @@
         <v>19448</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3272,13 @@
         <v>36396</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -3299,13 +3287,13 @@
         <v>58348</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -3314,13 +3302,13 @@
         <v>94744</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3323,13 @@
         <v>193917</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>188</v>
@@ -3350,13 +3338,13 @@
         <v>196006</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>373</v>
@@ -3365,13 +3353,13 @@
         <v>389923</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3374,13 @@
         <v>224270</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>141</v>
@@ -3401,13 +3389,13 @@
         <v>150166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>357</v>
@@ -3416,13 +3404,13 @@
         <v>374437</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3425,13 @@
         <v>87104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -3452,13 +3440,13 @@
         <v>62164</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>143</v>
@@ -3467,13 +3455,13 @@
         <v>149268</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3529,13 @@
         <v>80553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>189</v>
@@ -3556,13 +3544,13 @@
         <v>195362</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>271</v>
@@ -3571,10 +3559,10 @@
         <v>275915</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>160</v>
@@ -3598,7 +3586,7 @@
         <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="H23" s="7">
         <v>747</v>
@@ -3607,13 +3595,13 @@
         <v>772351</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>1177</v>
@@ -3622,13 +3610,13 @@
         <v>1204205</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3631,13 @@
         <v>1207931</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>1336</v>
@@ -3658,13 +3646,13 @@
         <v>1372349</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>2530</v>
@@ -3673,13 +3661,13 @@
         <v>2580280</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3682,13 @@
         <v>1195774</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>771</v>
@@ -3709,13 +3697,13 @@
         <v>778377</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>1932</v>
@@ -3724,13 +3712,13 @@
         <v>1974151</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3733,13 @@
         <v>359346</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>254</v>
@@ -3760,13 +3748,13 @@
         <v>260759</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>600</v>
@@ -3775,13 +3763,13 @@
         <v>620105</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,7 +3825,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3856,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C40E9E-B46F-41FE-ABB1-B14E08CD8282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F503A2FF-C578-4FDC-80AF-C484E75F5E3B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3873,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3980,13 +3968,13 @@
         <v>73265</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>143</v>
@@ -3995,13 +3983,13 @@
         <v>152485</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>209</v>
@@ -4010,13 +3998,13 @@
         <v>225750</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4019,13 @@
         <v>267720</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>445</v>
@@ -4046,13 +4034,13 @@
         <v>474182</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>688</v>
@@ -4061,13 +4049,13 @@
         <v>741902</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4070,13 @@
         <v>428700</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>494</v>
@@ -4097,13 +4085,13 @@
         <v>533180</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>898</v>
@@ -4112,13 +4100,13 @@
         <v>961880</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4121,13 @@
         <v>163432</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -4148,13 +4136,13 @@
         <v>157059</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>300</v>
@@ -4163,13 +4151,13 @@
         <v>320491</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4172,13 @@
         <v>41526</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -4199,13 +4187,13 @@
         <v>19945</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -4214,13 +4202,13 @@
         <v>61471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4276,13 @@
         <v>23057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4303,13 +4291,13 @@
         <v>43621</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -4318,13 +4306,13 @@
         <v>66677</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4327,13 @@
         <v>174844</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>218</v>
@@ -4354,13 +4342,13 @@
         <v>240604</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>383</v>
@@ -4369,13 +4357,13 @@
         <v>415448</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4378,13 @@
         <v>815927</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H12" s="7">
         <v>748</v>
@@ -4405,13 +4393,13 @@
         <v>807451</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>1503</v>
@@ -4420,13 +4408,13 @@
         <v>1623378</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4429,13 @@
         <v>658207</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>467</v>
@@ -4456,13 +4444,13 @@
         <v>496896</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>1101</v>
@@ -4471,13 +4459,13 @@
         <v>1155103</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4480,13 @@
         <v>286839</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -4507,13 +4495,13 @@
         <v>166309</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>437</v>
@@ -4522,13 +4510,13 @@
         <v>453148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>14</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4528,7 @@
         <v>1851</v>
       </c>
       <c r="D15" s="7">
-        <v>1958873</v>
+        <v>1958874</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4596,13 +4584,13 @@
         <v>5193</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4611,13 +4599,13 @@
         <v>5120</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4626,13 +4614,13 @@
         <v>10313</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4635,13 @@
         <v>24203</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -4662,13 +4650,13 @@
         <v>30166</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -4677,13 +4665,13 @@
         <v>54369</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,10 +4686,10 @@
         <v>181241</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>303</v>
@@ -4752,10 +4740,10 @@
         <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -4764,13 +4752,13 @@
         <v>145713</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>320</v>
@@ -4779,13 +4767,13 @@
         <v>344734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4788,13 @@
         <v>69585</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -4815,13 +4803,13 @@
         <v>50740</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
@@ -4830,13 +4818,13 @@
         <v>120324</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4892,13 @@
         <v>101515</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7">
         <v>186</v>
@@ -4919,13 +4907,13 @@
         <v>201225</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M22" s="7">
         <v>277</v>
@@ -4934,13 +4922,13 @@
         <v>302741</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4943,13 @@
         <v>466767</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H23" s="7">
         <v>690</v>
@@ -4970,13 +4958,13 @@
         <v>744952</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M23" s="7">
         <v>1115</v>
@@ -4985,13 +4973,13 @@
         <v>1211719</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +4994,13 @@
         <v>1425868</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H24" s="7">
         <v>1443</v>
@@ -5021,13 +5009,13 @@
         <v>1566537</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M24" s="7">
         <v>2770</v>
@@ -5036,13 +5024,13 @@
         <v>2992406</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5045,13 @@
         <v>1020659</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>746</v>
@@ -5072,13 +5060,13 @@
         <v>799669</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>352</v>
+        <v>43</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M25" s="7">
         <v>1721</v>
@@ -5087,13 +5075,13 @@
         <v>1820328</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5096,13 @@
         <v>397949</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H26" s="7">
         <v>225</v>
@@ -5123,13 +5111,13 @@
         <v>236994</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M26" s="7">
         <v>602</v>
@@ -5138,13 +5126,13 @@
         <v>634944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>202</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,7 +5188,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5219,7 +5207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257388E5-D3E9-4A8F-BAE5-0A1370CAC5C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5700B8-CADC-4869-8F67-0F5E25B54EFB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5236,7 +5224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5343,13 +5331,13 @@
         <v>49728</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>73</v>
+        <v>371</v>
       </c>
       <c r="H4" s="7">
         <v>96</v>
@@ -5358,13 +5346,13 @@
         <v>114972</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M4" s="7">
         <v>149</v>
@@ -5373,13 +5361,13 @@
         <v>164700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5382,13 @@
         <v>199558</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H5" s="7">
         <v>293</v>
@@ -5409,13 +5397,13 @@
         <v>336030</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>382</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M5" s="7">
         <v>497</v>
@@ -5424,13 +5412,13 @@
         <v>535588</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>385</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5433,13 @@
         <v>275741</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="H6" s="7">
         <v>296</v>
@@ -5460,13 +5448,13 @@
         <v>325602</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="M6" s="7">
         <v>576</v>
@@ -5475,13 +5463,13 @@
         <v>601343</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>213</v>
+        <v>393</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5484,13 @@
         <v>163216</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H7" s="7">
         <v>153</v>
@@ -5511,13 +5499,13 @@
         <v>160686</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
@@ -5526,13 +5514,13 @@
         <v>323902</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>393</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5535,13 @@
         <v>66103</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -5562,13 +5550,13 @@
         <v>53155</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>116</v>
@@ -5577,13 +5565,13 @@
         <v>119258</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,13 +5639,13 @@
         <v>35732</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -5666,13 +5654,13 @@
         <v>65471</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>408</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>409</v>
+        <v>12</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -5681,13 +5669,13 @@
         <v>101202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>410</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5690,13 @@
         <v>215708</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -5717,13 +5705,13 @@
         <v>272852</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>444</v>
@@ -5732,13 +5720,13 @@
         <v>488560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5741,13 @@
         <v>632434</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>422</v>
+        <v>274</v>
       </c>
       <c r="H12" s="7">
         <v>581</v>
@@ -5768,13 +5756,13 @@
         <v>617765</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M12" s="7">
         <v>1169</v>
@@ -5783,13 +5771,13 @@
         <v>1250199</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>426</v>
+        <v>185</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,10 +5795,10 @@
         <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>690</v>
@@ -5819,13 +5807,13 @@
         <v>697041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M13" s="7">
         <v>1445</v>
@@ -5834,13 +5822,13 @@
         <v>1494711</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5843,13 @@
         <v>392989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5870,13 +5858,13 @@
         <v>335171</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M14" s="7">
         <v>710</v>
@@ -5885,13 +5873,13 @@
         <v>728159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5947,13 @@
         <v>5670</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>451</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5974,13 +5962,13 @@
         <v>9554</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>449</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5989,13 +5977,13 @@
         <v>15223</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +5998,13 @@
         <v>25610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -6025,13 +6013,13 @@
         <v>45207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>456</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -6040,13 +6028,13 @@
         <v>70816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6049,13 @@
         <v>146873</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>462</v>
+        <v>163</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H18" s="7">
         <v>170</v>
@@ -6076,13 +6064,13 @@
         <v>182222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>464</v>
+        <v>142</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M18" s="7">
         <v>302</v>
@@ -6091,7 +6079,7 @@
         <v>329096</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>467</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>468</v>
@@ -6115,10 +6103,10 @@
         <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>212</v>
@@ -6127,10 +6115,10 @@
         <v>216794</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>474</v>
@@ -6139,16 +6127,16 @@
         <v>431</v>
       </c>
       <c r="N19" s="7">
-        <v>454624</v>
+        <v>454623</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6151,13 @@
         <v>127923</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -6178,13 +6166,13 @@
         <v>94349</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="M20" s="7">
         <v>213</v>
@@ -6193,13 +6181,13 @@
         <v>222272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,7 +6229,7 @@
         <v>1023</v>
       </c>
       <c r="N21" s="7">
-        <v>1092032</v>
+        <v>1092031</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6267,13 +6255,13 @@
         <v>91129</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>486</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>163</v>
@@ -6285,10 +6273,10 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>252</v>
@@ -6297,13 +6285,13 @@
         <v>281126</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>492</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6306,13 @@
         <v>440876</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>490</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H23" s="7">
         <v>578</v>
@@ -6333,13 +6321,13 @@
         <v>654089</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M23" s="7">
         <v>1005</v>
@@ -6348,13 +6336,13 @@
         <v>1094965</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6357,13 @@
         <v>1055049</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>504</v>
+        <v>429</v>
       </c>
       <c r="H24" s="7">
         <v>1047</v>
@@ -6384,13 +6372,13 @@
         <v>1125589</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M24" s="7">
         <v>2047</v>
@@ -6399,13 +6387,13 @@
         <v>2180638</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6408,13 @@
         <v>1198715</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H25" s="7">
         <v>1055</v>
@@ -6435,13 +6423,13 @@
         <v>1074521</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M25" s="7">
         <v>2189</v>
@@ -6450,13 +6438,13 @@
         <v>2273237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,13 +6459,13 @@
         <v>587015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H26" s="7">
         <v>479</v>
@@ -6486,13 +6474,13 @@
         <v>482675</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M26" s="7">
         <v>1039</v>
@@ -6501,13 +6489,13 @@
         <v>1069690</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,7 +6537,7 @@
         <v>6532</v>
       </c>
       <c r="N27" s="7">
-        <v>6899655</v>
+        <v>6899654</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6563,7 +6551,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6582,7 +6570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6355A455-FE73-46C1-97D1-B1A7F3EE0C38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ACD946-9F05-464A-90DE-64FD1A41D2AD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6599,7 +6587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6706,13 +6694,13 @@
         <v>58813</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H4" s="7">
         <v>241</v>
@@ -6721,13 +6709,13 @@
         <v>132770</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M4" s="7">
         <v>325</v>
@@ -6736,13 +6724,13 @@
         <v>191583</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>390</v>
+        <v>531</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6745,13 @@
         <v>157939</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H5" s="7">
         <v>546</v>
@@ -6772,13 +6760,13 @@
         <v>304138</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M5" s="7">
         <v>754</v>
@@ -6787,13 +6775,13 @@
         <v>462077</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>269</v>
+        <v>541</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6796,13 @@
         <v>217437</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>545</v>
+        <v>318</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H6" s="7">
         <v>497</v>
@@ -6823,13 +6811,13 @@
         <v>305682</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>549</v>
+        <v>508</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>550</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>767</v>
@@ -6838,13 +6826,13 @@
         <v>523118</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6847,13 @@
         <v>71877</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>359</v>
+        <v>549</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>554</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
@@ -6874,13 +6862,13 @@
         <v>73879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="M7" s="7">
         <v>207</v>
@@ -6889,13 +6877,13 @@
         <v>145757</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,13 +6898,13 @@
         <v>35568</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>556</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -6925,13 +6913,13 @@
         <v>19483</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>562</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -6940,13 +6928,13 @@
         <v>55051</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7002,13 @@
         <v>52219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>568</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>570</v>
+        <v>293</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -7029,13 +7017,13 @@
         <v>54975</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>573</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
@@ -7044,13 +7032,13 @@
         <v>107194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>566</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,13 +7053,13 @@
         <v>259309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H11" s="7">
         <v>527</v>
@@ -7080,13 +7068,13 @@
         <v>326784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>413</v>
+        <v>253</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M11" s="7">
         <v>813</v>
@@ -7095,13 +7083,13 @@
         <v>586093</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>582</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,13 +7104,13 @@
         <v>922899</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>583</v>
+        <v>218</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H12" s="7">
         <v>1388</v>
@@ -7131,13 +7119,13 @@
         <v>1083407</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="M12" s="7">
         <v>2294</v>
@@ -7146,13 +7134,13 @@
         <v>2006306</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7155,13 @@
         <v>674009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="H13" s="7">
         <v>738</v>
@@ -7182,13 +7170,13 @@
         <v>608875</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="M13" s="7">
         <v>1319</v>
@@ -7197,13 +7185,13 @@
         <v>1282884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7206,13 @@
         <v>253586</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="H14" s="7">
         <v>175</v>
@@ -7233,13 +7221,13 @@
         <v>175481</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="M14" s="7">
         <v>333</v>
@@ -7248,13 +7236,13 @@
         <v>429067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>599</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7310,13 @@
         <v>9344</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>602</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -7337,13 +7325,13 @@
         <v>11453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -7352,13 +7340,13 @@
         <v>20797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7361,13 @@
         <v>61780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -7388,13 +7376,13 @@
         <v>62924</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>612</v>
       </c>
       <c r="M17" s="7">
         <v>176</v>
@@ -7403,13 +7391,13 @@
         <v>124705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,13 +7412,13 @@
         <v>320606</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="H18" s="7">
         <v>479</v>
@@ -7439,13 +7427,13 @@
         <v>324494</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="M18" s="7">
         <v>825</v>
@@ -7454,13 +7442,13 @@
         <v>645100</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,13 +7463,13 @@
         <v>194748</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H19" s="7">
         <v>288</v>
@@ -7490,13 +7478,13 @@
         <v>226890</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="M19" s="7">
         <v>474</v>
@@ -7505,13 +7493,13 @@
         <v>421638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,13 +7514,13 @@
         <v>86560</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>639</v>
+        <v>194</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H20" s="7">
         <v>110</v>
@@ -7541,13 +7529,13 @@
         <v>88125</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>642</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="M20" s="7">
         <v>178</v>
@@ -7556,13 +7544,13 @@
         <v>174686</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>523</v>
+        <v>637</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,13 +7618,13 @@
         <v>120376</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="H22" s="7">
         <v>353</v>
@@ -7645,13 +7633,13 @@
         <v>199198</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>199</v>
+        <v>642</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
@@ -7663,10 +7651,10 @@
         <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>649</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,13 +7669,13 @@
         <v>479028</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="H23" s="7">
         <v>1181</v>
@@ -7696,13 +7684,13 @@
         <v>693847</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="M23" s="7">
         <v>1743</v>
@@ -7711,13 +7699,13 @@
         <v>1172875</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,13 +7720,13 @@
         <v>1460941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="H24" s="7">
         <v>2364</v>
@@ -7747,13 +7735,13 @@
         <v>1713583</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="M24" s="7">
         <v>3886</v>
@@ -7762,13 +7750,13 @@
         <v>3174524</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,13 +7771,13 @@
         <v>940634</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>93</v>
+        <v>661</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H25" s="7">
         <v>1148</v>
@@ -7798,13 +7786,13 @@
         <v>909644</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="M25" s="7">
         <v>2000</v>
@@ -7813,13 +7801,13 @@
         <v>1850278</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7834,13 +7822,13 @@
         <v>375714</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H26" s="7">
         <v>306</v>
@@ -7849,13 +7837,13 @@
         <v>283089</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>674</v>
       </c>
       <c r="M26" s="7">
         <v>576</v>
@@ -7864,13 +7852,13 @@
         <v>658803</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7926,7 +7914,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E211C53-70F0-4E88-8A30-E9A508A47FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2B6C51B-8CD4-4D45-801A-555AD609E32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17299411-5CAD-4BBC-BEC9-1EEB55F9991B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B519BAED-1010-42D4-9DCF-216ECCB1DA53}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="681">
   <si>
     <t>Población según salud general autopercibida en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1996 +80,2008 @@
     <t>4,16%</t>
   </si>
   <si>
-    <t>6,93%</t>
+    <t>6,78%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>9,43%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según salud general autopercibida en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>Población según salud general autopercibida en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>Población según salud general autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según salud general autopercibida en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>Población según salud general autopercibida en 2016 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>Población según salud general autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B8FBE1-395E-424B-AF60-D7FA6AEBD855}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0B3270-6136-451F-ADC0-1B98F272C33E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2776,10 +2788,10 @@
         <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>353</v>
@@ -2788,19 +2800,19 @@
         <v>355973</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>56</v>
@@ -2809,13 +2821,13 @@
         <v>56742</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -2824,13 +2836,13 @@
         <v>47743</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -2839,13 +2851,13 @@
         <v>104485</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2872,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2875,13 +2887,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2890,18 +2902,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2913,13 +2925,13 @@
         <v>15171</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2928,13 +2940,13 @@
         <v>41023</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -2943,13 +2955,13 @@
         <v>56194</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2976,13 @@
         <v>119174</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>201</v>
@@ -2979,13 +2991,13 @@
         <v>206436</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>317</v>
@@ -2994,13 +3006,13 @@
         <v>325610</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3027,13 @@
         <v>575433</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>687</v>
@@ -3030,13 +3042,13 @@
         <v>712671</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>1251</v>
@@ -3045,13 +3057,13 @@
         <v>1288103</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3078,13 @@
         <v>767050</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>476</v>
@@ -3081,13 +3093,13 @@
         <v>476691</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>1222</v>
@@ -3096,19 +3108,19 @@
         <v>1243741</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>206</v>
@@ -3117,13 +3129,13 @@
         <v>215500</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>149</v>
@@ -3132,13 +3144,13 @@
         <v>150852</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>355</v>
@@ -3147,13 +3159,13 @@
         <v>366352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3180,13 @@
         <v>1692328</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1554</v>
@@ -3183,13 +3195,13 @@
         <v>1587673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3202</v>
@@ -3198,18 +3210,18 @@
         <v>3280001</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3221,13 +3233,13 @@
         <v>9721</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3236,13 +3248,13 @@
         <v>9727</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3251,13 +3263,13 @@
         <v>19448</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3284,13 @@
         <v>36396</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -3287,13 +3299,13 @@
         <v>58348</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -3302,13 +3314,13 @@
         <v>94744</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3335,13 @@
         <v>193917</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>188</v>
@@ -3338,13 +3350,13 @@
         <v>196006</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>373</v>
@@ -3353,13 +3365,13 @@
         <v>389923</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3386,13 @@
         <v>224270</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>141</v>
@@ -3389,13 +3401,13 @@
         <v>150166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>357</v>
@@ -3404,19 +3416,19 @@
         <v>374437</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>84</v>
@@ -3425,13 +3437,13 @@
         <v>87104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -3440,13 +3452,13 @@
         <v>62164</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>143</v>
@@ -3455,13 +3467,13 @@
         <v>149268</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3488,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3491,13 +3503,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3506,13 +3518,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3541,13 @@
         <v>80553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>189</v>
@@ -3544,13 +3556,13 @@
         <v>195362</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>271</v>
@@ -3559,13 +3571,13 @@
         <v>275915</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3592,13 @@
         <v>431855</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>747</v>
@@ -3595,13 +3607,13 @@
         <v>772351</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>1177</v>
@@ -3610,13 +3622,13 @@
         <v>1204205</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3643,13 @@
         <v>1207931</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>1336</v>
@@ -3646,13 +3658,13 @@
         <v>1372349</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>2530</v>
@@ -3661,13 +3673,13 @@
         <v>2580280</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3694,13 @@
         <v>1195774</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>771</v>
@@ -3697,13 +3709,13 @@
         <v>778377</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>1932</v>
@@ -3712,19 +3724,19 @@
         <v>1974151</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>346</v>
@@ -3733,13 +3745,13 @@
         <v>359346</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>254</v>
@@ -3748,13 +3760,13 @@
         <v>260759</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>600</v>
@@ -3763,13 +3775,13 @@
         <v>620105</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3796,13 @@
         <v>3275459</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3799,13 +3811,13 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6510</v>
@@ -3814,18 +3826,18 @@
         <v>6654656</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F503A2FF-C578-4FDC-80AF-C484E75F5E3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13823AD-0F58-4F97-884D-9B64FA6962B9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,7 +3873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3968,13 +3980,13 @@
         <v>73265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>143</v>
@@ -3983,13 +3995,13 @@
         <v>152485</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>209</v>
@@ -3998,13 +4010,13 @@
         <v>225750</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4031,13 @@
         <v>267720</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>445</v>
@@ -4034,13 +4046,13 @@
         <v>474182</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="M5" s="7">
         <v>688</v>
@@ -4049,13 +4061,13 @@
         <v>741902</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4082,13 @@
         <v>428700</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>494</v>
@@ -4085,13 +4097,13 @@
         <v>533180</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>898</v>
@@ -4100,13 +4112,13 @@
         <v>961880</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4133,13 @@
         <v>163432</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -4136,13 +4148,13 @@
         <v>157059</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>300</v>
@@ -4151,19 +4163,19 @@
         <v>320491</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>41</v>
@@ -4172,13 +4184,13 @@
         <v>41526</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -4187,13 +4199,13 @@
         <v>19945</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -4202,13 +4214,13 @@
         <v>61471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4235,13 @@
         <v>974643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1246</v>
@@ -4238,13 +4250,13 @@
         <v>1336851</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2154</v>
@@ -4253,18 +4265,18 @@
         <v>2311494</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4276,13 +4288,13 @@
         <v>23057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4291,13 +4303,13 @@
         <v>43621</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -4306,13 +4318,13 @@
         <v>66677</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4339,13 @@
         <v>174844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>218</v>
@@ -4342,13 +4354,13 @@
         <v>240604</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>383</v>
@@ -4357,13 +4369,13 @@
         <v>415448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4390,13 @@
         <v>815927</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H12" s="7">
         <v>748</v>
@@ -4393,13 +4405,13 @@
         <v>807451</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M12" s="7">
         <v>1503</v>
@@ -4408,13 +4420,13 @@
         <v>1623378</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4441,13 @@
         <v>658207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>28</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>467</v>
@@ -4444,13 +4456,13 @@
         <v>496896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>1101</v>
@@ -4459,19 +4471,19 @@
         <v>1155103</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>276</v>
@@ -4480,13 +4492,13 @@
         <v>286839</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -4495,13 +4507,13 @@
         <v>166309</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>437</v>
@@ -4510,13 +4522,13 @@
         <v>453148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4543,13 @@
         <v>1958874</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1633</v>
@@ -4546,13 +4558,13 @@
         <v>1754882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3484</v>
@@ -4561,18 +4573,18 @@
         <v>3713755</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4584,13 +4596,13 @@
         <v>5193</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4599,13 +4611,13 @@
         <v>5120</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4614,13 +4626,13 @@
         <v>10313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4647,13 @@
         <v>24203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -4650,13 +4662,13 @@
         <v>30166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -4665,13 +4677,13 @@
         <v>54369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4698,13 @@
         <v>181241</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>201</v>
@@ -4701,13 +4713,13 @@
         <v>225906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>369</v>
@@ -4716,13 +4728,13 @@
         <v>407147</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4749,13 @@
         <v>199020</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -4752,13 +4764,13 @@
         <v>145713</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>320</v>
@@ -4767,19 +4779,19 @@
         <v>344734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>60</v>
@@ -4788,13 +4800,13 @@
         <v>69585</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -4803,13 +4815,13 @@
         <v>50740</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
@@ -4818,13 +4830,13 @@
         <v>120324</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4851,13 @@
         <v>479243</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>411</v>
@@ -4854,13 +4866,13 @@
         <v>457645</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>847</v>
@@ -4869,13 +4881,13 @@
         <v>936888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4904,13 @@
         <v>101515</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7">
         <v>186</v>
@@ -4907,13 +4919,13 @@
         <v>201225</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>277</v>
@@ -4922,13 +4934,13 @@
         <v>302741</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4955,13 @@
         <v>466767</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>690</v>
@@ -4958,13 +4970,13 @@
         <v>744952</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>1115</v>
@@ -4973,13 +4985,13 @@
         <v>1211719</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +5006,13 @@
         <v>1425868</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H24" s="7">
         <v>1443</v>
@@ -5009,13 +5021,13 @@
         <v>1566537</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>2770</v>
@@ -5024,13 +5036,13 @@
         <v>2992406</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5057,13 @@
         <v>1020659</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>746</v>
@@ -5060,13 +5072,13 @@
         <v>799669</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>43</v>
+        <v>332</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>1721</v>
@@ -5075,19 +5087,19 @@
         <v>1820328</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>377</v>
@@ -5096,13 +5108,13 @@
         <v>397949</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>225</v>
@@ -5111,13 +5123,13 @@
         <v>236994</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>365</v>
+        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>602</v>
@@ -5126,13 +5138,13 @@
         <v>634944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5159,13 @@
         <v>3412759</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3290</v>
@@ -5162,13 +5174,13 @@
         <v>3549378</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6485</v>
@@ -5177,18 +5189,18 @@
         <v>6962137</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5207,7 +5219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5700B8-CADC-4869-8F67-0F5E25B54EFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EB1935-1FC6-426B-A6F3-4FAC6D40636E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5224,7 +5236,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5331,13 +5343,13 @@
         <v>49728</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>96</v>
@@ -5346,13 +5358,13 @@
         <v>114972</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>149</v>
@@ -5361,13 +5373,13 @@
         <v>164700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5394,13 @@
         <v>199558</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>293</v>
@@ -5397,13 +5409,13 @@
         <v>336030</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>382</v>
+        <v>266</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="M5" s="7">
         <v>497</v>
@@ -5412,13 +5424,13 @@
         <v>535588</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5445,13 @@
         <v>275741</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="H6" s="7">
         <v>296</v>
@@ -5448,13 +5460,13 @@
         <v>325602</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="M6" s="7">
         <v>576</v>
@@ -5463,13 +5475,13 @@
         <v>601343</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5496,13 @@
         <v>163216</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>153</v>
@@ -5499,13 +5511,13 @@
         <v>160686</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>400</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
@@ -5514,19 +5526,19 @@
         <v>323902</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>390</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>65</v>
@@ -5535,13 +5547,13 @@
         <v>66103</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -5550,13 +5562,13 @@
         <v>53155</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>396</v>
       </c>
       <c r="M8" s="7">
         <v>116</v>
@@ -5565,13 +5577,13 @@
         <v>119258</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5598,13 @@
         <v>754347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>889</v>
@@ -5601,13 +5613,13 @@
         <v>990444</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1651</v>
@@ -5616,18 +5628,18 @@
         <v>1744791</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5639,13 +5651,13 @@
         <v>35732</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>412</v>
+        <v>112</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -5654,10 +5666,10 @@
         <v>65471</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>12</v>
@@ -5669,13 +5681,13 @@
         <v>101202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>415</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5702,13 @@
         <v>215708</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -5705,13 +5717,13 @@
         <v>272852</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="M11" s="7">
         <v>444</v>
@@ -5720,13 +5732,13 @@
         <v>488560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>424</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5753,13 @@
         <v>632434</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>274</v>
+        <v>415</v>
       </c>
       <c r="H12" s="7">
         <v>581</v>
@@ -5756,13 +5768,13 @@
         <v>617765</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="M12" s="7">
         <v>1169</v>
@@ -5771,13 +5783,13 @@
         <v>1250199</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>185</v>
+        <v>419</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,10 +5807,10 @@
         <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>433</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>690</v>
@@ -5807,13 +5819,13 @@
         <v>697041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="M13" s="7">
         <v>1445</v>
@@ -5822,19 +5834,19 @@
         <v>1494711</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>376</v>
@@ -5843,13 +5855,13 @@
         <v>392989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5858,13 +5870,13 @@
         <v>335171</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="M14" s="7">
         <v>710</v>
@@ -5873,13 +5885,13 @@
         <v>728159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5906,13 @@
         <v>2074532</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1908</v>
@@ -5909,13 +5921,13 @@
         <v>1988300</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3858</v>
@@ -5924,18 +5936,18 @@
         <v>4062832</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5947,13 +5959,13 @@
         <v>5670</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>451</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5962,13 +5974,13 @@
         <v>9554</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5977,13 +5989,13 @@
         <v>15223</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,13 +6010,13 @@
         <v>25610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -6013,13 +6025,13 @@
         <v>45207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>446</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -6028,13 +6040,13 @@
         <v>70816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +6061,13 @@
         <v>146873</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>163</v>
+        <v>453</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="H18" s="7">
         <v>170</v>
@@ -6064,13 +6076,13 @@
         <v>182222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>142</v>
+        <v>455</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M18" s="7">
         <v>302</v>
@@ -6079,13 +6091,13 @@
         <v>329096</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6112,13 @@
         <v>237829</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>462</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H19" s="7">
         <v>212</v>
@@ -6115,13 +6127,13 @@
         <v>216794</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M19" s="7">
         <v>431</v>
@@ -6130,19 +6142,19 @@
         <v>454623</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>119</v>
@@ -6151,13 +6163,13 @@
         <v>127923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -6166,13 +6178,13 @@
         <v>94349</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>388</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="M20" s="7">
         <v>213</v>
@@ -6181,13 +6193,13 @@
         <v>222272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>402</v>
+        <v>474</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6214,13 @@
         <v>543905</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>525</v>
@@ -6217,13 +6229,13 @@
         <v>548126</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1023</v>
@@ -6232,13 +6244,13 @@
         <v>1092031</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,13 +6267,13 @@
         <v>91129</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>285</v>
+        <v>477</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H22" s="7">
         <v>163</v>
@@ -6273,10 +6285,10 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
         <v>252</v>
@@ -6285,13 +6297,13 @@
         <v>281126</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>54</v>
+        <v>483</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,13 +6318,13 @@
         <v>440876</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H23" s="7">
         <v>578</v>
@@ -6321,13 +6333,13 @@
         <v>654089</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="M23" s="7">
         <v>1005</v>
@@ -6336,13 +6348,13 @@
         <v>1094965</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6369,13 @@
         <v>1055049</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="H24" s="7">
         <v>1047</v>
@@ -6372,13 +6384,13 @@
         <v>1125589</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M24" s="7">
         <v>2047</v>
@@ -6387,13 +6399,13 @@
         <v>2180638</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6420,13 @@
         <v>1198715</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H25" s="7">
         <v>1055</v>
@@ -6423,13 +6435,13 @@
         <v>1074521</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M25" s="7">
         <v>2189</v>
@@ -6438,19 +6450,19 @@
         <v>2273237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>560</v>
@@ -6459,13 +6471,13 @@
         <v>587015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H26" s="7">
         <v>479</v>
@@ -6474,13 +6486,13 @@
         <v>482675</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M26" s="7">
         <v>1039</v>
@@ -6489,13 +6501,13 @@
         <v>1069690</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6522,13 @@
         <v>3372784</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3322</v>
@@ -6525,13 +6537,13 @@
         <v>3526870</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6532</v>
@@ -6540,18 +6552,18 @@
         <v>6899654</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6570,7 +6582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ACD946-9F05-464A-90DE-64FD1A41D2AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8C156E-0501-419A-9BE9-6D9779B9AE95}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6587,7 +6599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6694,13 +6706,13 @@
         <v>58813</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H4" s="7">
         <v>241</v>
@@ -6709,13 +6721,13 @@
         <v>132770</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="M4" s="7">
         <v>325</v>
@@ -6724,13 +6736,13 @@
         <v>191583</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6757,13 @@
         <v>157939</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H5" s="7">
         <v>546</v>
@@ -6760,13 +6772,13 @@
         <v>304138</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="M5" s="7">
         <v>754</v>
@@ -6775,13 +6787,13 @@
         <v>462077</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6808,13 @@
         <v>217437</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>318</v>
+        <v>538</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H6" s="7">
         <v>497</v>
@@ -6811,13 +6823,13 @@
         <v>305682</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>542</v>
       </c>
       <c r="M6" s="7">
         <v>767</v>
@@ -6826,13 +6838,13 @@
         <v>523118</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>547</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6859,13 @@
         <v>71877</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
@@ -6862,13 +6874,13 @@
         <v>73879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M7" s="7">
         <v>207</v>
@@ -6877,19 +6889,19 @@
         <v>145757</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>552</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>44</v>
@@ -6898,13 +6910,13 @@
         <v>35568</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>556</v>
+        <v>484</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -6913,13 +6925,13 @@
         <v>19483</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>554</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>558</v>
+        <v>63</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -6928,13 +6940,13 @@
         <v>55051</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>561</v>
+        <v>279</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,13 +6961,13 @@
         <v>541634</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1427</v>
@@ -6964,13 +6976,13 @@
         <v>835953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2118</v>
@@ -6979,18 +6991,18 @@
         <v>1377586</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7002,13 +7014,13 @@
         <v>52219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>557</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>293</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -7017,13 +7029,13 @@
         <v>54975</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>565</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>560</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
@@ -7032,13 +7044,13 @@
         <v>107194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7065,13 @@
         <v>259309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>569</v>
+        <v>486</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
       <c r="H11" s="7">
         <v>527</v>
@@ -7068,13 +7080,13 @@
         <v>326784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>567</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M11" s="7">
         <v>813</v>
@@ -7083,13 +7095,13 @@
         <v>586093</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,28 +7116,28 @@
         <v>922899</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>218</v>
+        <v>572</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H12" s="7">
         <v>1388</v>
       </c>
       <c r="I12" s="7">
-        <v>1083407</v>
+        <v>1083406</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="M12" s="7">
         <v>2294</v>
@@ -7134,13 +7146,13 @@
         <v>2006306</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,28 +7167,28 @@
         <v>674009</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="H13" s="7">
         <v>738</v>
       </c>
       <c r="I13" s="7">
-        <v>608875</v>
+        <v>608874</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="M13" s="7">
         <v>1319</v>
@@ -7185,19 +7197,19 @@
         <v>1282884</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>158</v>
@@ -7206,13 +7218,13 @@
         <v>253586</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="H14" s="7">
         <v>175</v>
@@ -7221,13 +7233,13 @@
         <v>175481</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>597</v>
       </c>
       <c r="M14" s="7">
         <v>333</v>
@@ -7236,13 +7248,13 @@
         <v>429067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>598</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7257,28 +7269,28 @@
         <v>2162022</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>4913</v>
@@ -7287,18 +7299,18 @@
         <v>4411543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7310,13 +7322,13 @@
         <v>9344</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -7325,13 +7337,13 @@
         <v>11453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>153</v>
+        <v>602</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -7340,13 +7352,13 @@
         <v>20797</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7373,13 @@
         <v>61780</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -7376,13 +7388,13 @@
         <v>62924</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="M17" s="7">
         <v>176</v>
@@ -7391,13 +7403,13 @@
         <v>124705</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,13 +7424,13 @@
         <v>320606</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>618</v>
       </c>
       <c r="H18" s="7">
         <v>479</v>
@@ -7427,13 +7439,13 @@
         <v>324494</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="M18" s="7">
         <v>825</v>
@@ -7442,13 +7454,13 @@
         <v>645100</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7463,13 +7475,13 @@
         <v>194748</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="H19" s="7">
         <v>288</v>
@@ -7478,13 +7490,13 @@
         <v>226890</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="M19" s="7">
         <v>474</v>
@@ -7493,19 +7505,19 @@
         <v>421638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>513</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>68</v>
@@ -7514,13 +7526,13 @@
         <v>86560</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H20" s="7">
         <v>110</v>
@@ -7529,13 +7541,13 @@
         <v>88125</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="M20" s="7">
         <v>178</v>
@@ -7544,13 +7556,13 @@
         <v>174686</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7565,13 +7577,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>1004</v>
@@ -7580,13 +7592,13 @@
         <v>713886</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1685</v>
@@ -7595,13 +7607,13 @@
         <v>1386926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,10 +7633,10 @@
         <v>639</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>561</v>
+        <v>640</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>640</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>353</v>
@@ -7636,10 +7648,10 @@
         <v>641</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>642</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
@@ -7648,13 +7660,13 @@
         <v>319575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,13 +7681,13 @@
         <v>479028</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="H23" s="7">
         <v>1181</v>
@@ -7684,13 +7696,13 @@
         <v>693847</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="M23" s="7">
         <v>1743</v>
@@ -7699,13 +7711,13 @@
         <v>1172875</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7732,13 @@
         <v>1460941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="H24" s="7">
         <v>2364</v>
@@ -7735,13 +7747,13 @@
         <v>1713583</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="M24" s="7">
         <v>3886</v>
@@ -7750,13 +7762,13 @@
         <v>3174524</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,16 +7780,16 @@
         <v>852</v>
       </c>
       <c r="D25" s="7">
-        <v>940634</v>
+        <v>940635</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="H25" s="7">
         <v>1148</v>
@@ -7786,13 +7798,13 @@
         <v>909644</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="M25" s="7">
         <v>2000</v>
@@ -7801,19 +7813,19 @@
         <v>1850278</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>270</v>
@@ -7822,13 +7834,13 @@
         <v>375714</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="H26" s="7">
         <v>306</v>
@@ -7837,13 +7849,13 @@
         <v>283089</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="M26" s="7">
         <v>576</v>
@@ -7852,13 +7864,13 @@
         <v>658803</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,16 +7882,16 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>5352</v>
@@ -7888,33 +7900,33 @@
         <v>3799360</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2B6C51B-8CD4-4D45-801A-555AD609E32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D64CFB-79B2-48FA-9F8E-D78724666087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B519BAED-1010-42D4-9DCF-216ECCB1DA53}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3B023D7B-8F9A-4A03-B3F8-D88FE66206E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="681">
-  <si>
-    <t>Población según salud general autopercibida en 2007 (Tasa respuesta: 99,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="675">
+  <si>
+    <t>Población según su salud general autopercibida en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -620,7 +620,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según salud general autopercibida en 2012 (Tasa respuesta: 99,83%)</t>
+    <t>Población según su salud general autopercibida en 2012 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
     <t>7,52%</t>
@@ -1118,7 +1118,7 @@
     <t>9,89%</t>
   </si>
   <si>
-    <t>Población según salud general autopercibida en 2016 (Tasa respuesta: 99,86%)</t>
+    <t>Población según su salud general autopercibida en 2016 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
     <t>4,97%</t>
@@ -1598,490 +1598,472 @@
     <t>16,35%</t>
   </si>
   <si>
-    <t>Población según salud general autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>Población según su salud general autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>36,38%</t>
   </si>
   <si>
-    <t>33,64%</t>
+    <t>33,78%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
 </sst>
 </file>
@@ -2493,7 +2475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0B3270-6136-451F-ADC0-1B98F272C33E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A87EF7D-3208-4614-97D6-F01D66A5B2E1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2644,7 +2626,7 @@
         <v>197</v>
       </c>
       <c r="N4" s="7">
-        <v>200273</v>
+        <v>200272</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2695,7 +2677,7 @@
         <v>771</v>
       </c>
       <c r="N5" s="7">
-        <v>783852</v>
+        <v>783851</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2899,7 +2881,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -3604,7 +3586,7 @@
         <v>747</v>
       </c>
       <c r="I23" s="7">
-        <v>772351</v>
+        <v>772350</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>161</v>
@@ -3808,7 +3790,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -3856,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13823AD-0F58-4F97-884D-9B64FA6962B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD87255-8B7B-478B-A606-E1E384B7FD2F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4540,7 +4522,7 @@
         <v>1851</v>
       </c>
       <c r="D15" s="7">
-        <v>1958874</v>
+        <v>1958873</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -5219,7 +5201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EB1935-1FC6-426B-A6F3-4FAC6D40636E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA3AC12-FC82-4F13-ACF5-5CD9410F6003}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6534,7 +6516,7 @@
         <v>3322</v>
       </c>
       <c r="I27" s="7">
-        <v>3526870</v>
+        <v>3526871</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -6582,7 +6564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8C156E-0501-419A-9BE9-6D9779B9AE95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389EE3FE-5499-429C-8FD4-89B9AAA73A82}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6703,7 +6685,7 @@
         <v>84</v>
       </c>
       <c r="D4" s="7">
-        <v>58813</v>
+        <v>55247</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>520</v>
@@ -6718,7 +6700,7 @@
         <v>241</v>
       </c>
       <c r="I4" s="7">
-        <v>132770</v>
+        <v>119301</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>523</v>
@@ -6733,16 +6715,16 @@
         <v>325</v>
       </c>
       <c r="N4" s="7">
-        <v>191583</v>
+        <v>174548</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,46 +6736,46 @@
         <v>208</v>
       </c>
       <c r="D5" s="7">
-        <v>157939</v>
+        <v>149078</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>530</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="H5" s="7">
         <v>546</v>
       </c>
       <c r="I5" s="7">
-        <v>304138</v>
+        <v>274849</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="M5" s="7">
         <v>754</v>
       </c>
       <c r="N5" s="7">
-        <v>462077</v>
+        <v>423927</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,46 +6787,46 @@
         <v>270</v>
       </c>
       <c r="D6" s="7">
-        <v>217437</v>
+        <v>206219</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H6" s="7">
         <v>497</v>
       </c>
       <c r="I6" s="7">
-        <v>305682</v>
+        <v>275226</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M6" s="7">
         <v>767</v>
       </c>
       <c r="N6" s="7">
-        <v>523118</v>
+        <v>481445</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,40 +6838,40 @@
         <v>85</v>
       </c>
       <c r="D7" s="7">
-        <v>71877</v>
+        <v>70170</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
       </c>
       <c r="I7" s="7">
-        <v>73879</v>
+        <v>68276</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M7" s="7">
         <v>207</v>
       </c>
       <c r="N7" s="7">
-        <v>145757</v>
+        <v>138446</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>317</v>
+        <v>549</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>550</v>
@@ -6907,46 +6889,46 @@
         <v>44</v>
       </c>
       <c r="D8" s="7">
-        <v>35568</v>
+        <v>34224</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>552</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
       </c>
       <c r="I8" s="7">
-        <v>19483</v>
+        <v>17855</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
       </c>
       <c r="N8" s="7">
-        <v>55051</v>
+        <v>52079</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>279</v>
+        <v>444</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,7 +6940,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>59</v>
@@ -6973,7 +6955,7 @@
         <v>1427</v>
       </c>
       <c r="I9" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -6988,7 +6970,7 @@
         <v>2118</v>
       </c>
       <c r="N9" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -7011,43 +6993,43 @@
         <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>52219</v>
+        <v>49703</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>557</v>
+        <v>478</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>558</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>559</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
       </c>
       <c r="I10" s="7">
-        <v>54975</v>
+        <v>50867</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>559</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>560</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
       </c>
       <c r="N10" s="7">
-        <v>107194</v>
+        <v>100570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>562</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>563</v>
@@ -7062,13 +7044,13 @@
         <v>286</v>
       </c>
       <c r="D11" s="7">
-        <v>259309</v>
+        <v>246852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>486</v>
+        <v>564</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>564</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>565</v>
@@ -7077,7 +7059,7 @@
         <v>527</v>
       </c>
       <c r="I11" s="7">
-        <v>326784</v>
+        <v>304107</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>566</v>
@@ -7092,7 +7074,7 @@
         <v>813</v>
       </c>
       <c r="N11" s="7">
-        <v>586093</v>
+        <v>550959</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>569</v>
@@ -7113,7 +7095,7 @@
         <v>906</v>
       </c>
       <c r="D12" s="7">
-        <v>922899</v>
+        <v>1069182</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>572</v>
@@ -7128,7 +7110,7 @@
         <v>1388</v>
       </c>
       <c r="I12" s="7">
-        <v>1083406</v>
+        <v>1143340</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>575</v>
@@ -7143,7 +7125,7 @@
         <v>2294</v>
       </c>
       <c r="N12" s="7">
-        <v>2006306</v>
+        <v>2212522</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>578</v>
@@ -7164,46 +7146,46 @@
         <v>581</v>
       </c>
       <c r="D13" s="7">
-        <v>674009</v>
+        <v>654720</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>582</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>583</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>738</v>
       </c>
       <c r="I13" s="7">
-        <v>608874</v>
+        <v>554807</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="M13" s="7">
         <v>1319</v>
       </c>
       <c r="N13" s="7">
-        <v>1282884</v>
+        <v>1209527</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,46 +7197,46 @@
         <v>158</v>
       </c>
       <c r="D14" s="7">
-        <v>253586</v>
+        <v>269870</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="H14" s="7">
         <v>175</v>
       </c>
       <c r="I14" s="7">
-        <v>175481</v>
+        <v>184703</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>593</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M14" s="7">
         <v>333</v>
       </c>
       <c r="N14" s="7">
-        <v>429067</v>
+        <v>454573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>593</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,7 +7248,7 @@
         <v>1992</v>
       </c>
       <c r="D15" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -7281,7 +7263,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -7296,7 +7278,7 @@
         <v>4913</v>
       </c>
       <c r="N15" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -7319,46 +7301,46 @@
         <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>9344</v>
+        <v>8901</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>442</v>
+        <v>596</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>11453</v>
+        <v>10706</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>20797</v>
+        <v>19608</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,46 +7352,46 @@
         <v>68</v>
       </c>
       <c r="D17" s="7">
-        <v>61780</v>
+        <v>59922</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>607</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>608</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
       </c>
       <c r="I17" s="7">
-        <v>62924</v>
+        <v>58113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>553</v>
+        <v>607</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>609</v>
+        <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="M17" s="7">
         <v>176</v>
       </c>
       <c r="N17" s="7">
-        <v>124705</v>
+        <v>118035</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>613</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,46 +7403,46 @@
         <v>346</v>
       </c>
       <c r="D18" s="7">
-        <v>320606</v>
+        <v>301044</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H18" s="7">
         <v>479</v>
       </c>
       <c r="I18" s="7">
-        <v>324494</v>
+        <v>298307</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="M18" s="7">
         <v>825</v>
       </c>
       <c r="N18" s="7">
-        <v>645100</v>
+        <v>599351</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,46 +7454,46 @@
         <v>186</v>
       </c>
       <c r="D19" s="7">
-        <v>194748</v>
+        <v>187088</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H19" s="7">
         <v>288</v>
       </c>
       <c r="I19" s="7">
-        <v>226890</v>
+        <v>210796</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M19" s="7">
         <v>474</v>
       </c>
       <c r="N19" s="7">
-        <v>421638</v>
+        <v>397884</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>375</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,46 +7505,46 @@
         <v>68</v>
       </c>
       <c r="D20" s="7">
-        <v>86560</v>
+        <v>89667</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>631</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>629</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H20" s="7">
         <v>110</v>
       </c>
       <c r="I20" s="7">
-        <v>88125</v>
+        <v>82541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>633</v>
+        <v>514</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M20" s="7">
         <v>178</v>
       </c>
       <c r="N20" s="7">
-        <v>174686</v>
+        <v>172208</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7574,7 +7556,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -7589,7 +7571,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -7604,7 +7586,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -7627,46 +7609,46 @@
         <v>158</v>
       </c>
       <c r="D22" s="7">
-        <v>120376</v>
+        <v>113851</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>293</v>
+        <v>638</v>
       </c>
       <c r="H22" s="7">
         <v>353</v>
       </c>
       <c r="I22" s="7">
-        <v>199198</v>
+        <v>180874</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>643</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
       </c>
       <c r="N22" s="7">
-        <v>319575</v>
+        <v>294726</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,46 +7660,46 @@
         <v>562</v>
       </c>
       <c r="D23" s="7">
-        <v>479028</v>
+        <v>455853</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>648</v>
+        <v>269</v>
       </c>
       <c r="H23" s="7">
         <v>1181</v>
       </c>
       <c r="I23" s="7">
-        <v>693847</v>
+        <v>637069</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M23" s="7">
         <v>1743</v>
       </c>
       <c r="N23" s="7">
-        <v>1172875</v>
+        <v>1092922</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>654</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,46 +7711,46 @@
         <v>1522</v>
       </c>
       <c r="D24" s="7">
-        <v>1460941</v>
+        <v>1576445</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H24" s="7">
         <v>2364</v>
       </c>
       <c r="I24" s="7">
-        <v>1713583</v>
+        <v>1716873</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="M24" s="7">
         <v>3886</v>
       </c>
       <c r="N24" s="7">
-        <v>3174524</v>
+        <v>3293318</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,46 +7762,46 @@
         <v>852</v>
       </c>
       <c r="D25" s="7">
-        <v>940635</v>
+        <v>911978</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="H25" s="7">
         <v>1148</v>
       </c>
       <c r="I25" s="7">
-        <v>909644</v>
+        <v>833879</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M25" s="7">
         <v>2000</v>
       </c>
       <c r="N25" s="7">
-        <v>1850278</v>
+        <v>1745857</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7831,46 +7813,46 @@
         <v>270</v>
       </c>
       <c r="D26" s="7">
-        <v>375714</v>
+        <v>393761</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>673</v>
+        <v>197</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H26" s="7">
         <v>306</v>
       </c>
       <c r="I26" s="7">
-        <v>283089</v>
+        <v>285098</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="M26" s="7">
         <v>576</v>
       </c>
       <c r="N26" s="7">
-        <v>658803</v>
+        <v>678860</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>679</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>680</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,7 +7864,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -7897,7 +7879,7 @@
         <v>5352</v>
       </c>
       <c r="I27" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -7912,7 +7894,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
